--- a/Test Data/HCM Employee Relations/HCM_AddressCorrection_0140.xlsx
+++ b/Test Data/HCM Employee Relations/HCM_AddressCorrection_0140.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OracleATS\OFT\Maaden\Test Data\HCM Employee Relations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FD674-714A-4603-8BE4-03946816C2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112D4A97-2C9C-464C-A77C-65D434D00C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDE52EBF-C34A-44E8-A19F-627BCDE4ABAD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="331">
   <si>
     <t>URL</t>
   </si>
@@ -1020,10 +1020,13 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t>Rina Kumari</t>
-  </si>
-  <si>
-    <t>Chand</t>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>Rani</t>
+  </si>
+  <si>
+    <t>Panda</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1079,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1099,23 +1102,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1125,7 +1117,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1135,13 +1126,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1460,7 +1451,7 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1563,95 +1554,95 @@
       <c r="AC1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="11">
-        <v>10340000000</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>123456</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="6">
         <v>135791</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="10" t="s">
         <v>314</v>
       </c>
     </row>
